--- a/experiments/llm-rnn/roberta-base_BiLSTM_2_Linear/word_level_error_type_summary.xlsx
+++ b/experiments/llm-rnn/roberta-base_BiLSTM_2_Linear/word_level_error_type_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,37 +447,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>False_E-Event</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>False_I-Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -487,146 +487,6 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Missed_B-NonEvent</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>False_I-NonEvent</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Missed_B-Event</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Missed_I-NonEvent</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>False_E-NonEvent</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Missed_I-Event</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_B</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>False_B-NonEvent</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>False_B-Event</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Missed_E-NonEvent</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Missed_E-Event</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
         <v>1</v>
       </c>
     </row>

--- a/experiments/llm-rnn/roberta-base_BiLSTM_2_Linear/word_level_error_type_summary.xlsx
+++ b/experiments/llm-rnn/roberta-base_BiLSTM_2_Linear/word_level_error_type_summary.xlsx
@@ -443,11 +443,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -457,33 +457,33 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Missed_S-NonEvent</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
       <c r="B6" t="n">
